--- a/spec/models/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/interfaceCnvSet_Trq2Q.xlsx
+++ b/spec/models/ASW/Eng/ETS/TrqCnv/CnvSet/CnvSet_Trq2Q/interfaceCnvSet_Trq2Q.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -567,8 +567,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,30 +636,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -622,45 +644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,9 +673,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,7 +712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,7 +742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,7 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +772,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,97 +868,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,19 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,6 +1025,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1041,24 +1065,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,21 +1099,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1122,6 +1113,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1130,10 +1130,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1145,128 +1145,128 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2278,10 +2278,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2371,7 +2371,7 @@
         <v>42</v>
       </c>
       <c r="H3" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>43</v>
@@ -2499,7 +2499,7 @@
         <v>42</v>
       </c>
       <c r="H8" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="26" t="s">
         <v>43</v>
@@ -2525,7 +2525,7 @@
         <v>42</v>
       </c>
       <c r="H9" s="26">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="26" t="s">
         <v>43</v>
@@ -2550,12 +2550,21 @@
       <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="26">
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,7 +2684,7 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
